--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
+    <sheet name="measurements" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,18 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>grunt.log(...)</t>
   </si>
   <si>
     <t>perl -e 'use Time...'</t>
-  </si>
-  <si>
-    <t>1. Test: Lokales vboxfs FS</t>
-  </si>
-  <si>
-    <t>2. Test: gemountetes vboxfs FS</t>
   </si>
   <si>
     <t>Reaktionszeit</t>
@@ -42,37 +36,58 @@
     <t>Laufzeit: Abweichung vom Mittelwert</t>
   </si>
   <si>
-    <t>Mittelwerte</t>
-  </si>
-  <si>
     <t>grunt Laufzeit</t>
-  </si>
-  <si>
-    <t>3. Test: gemountetes NFS FS</t>
-  </si>
-  <si>
-    <t>4. Test: exportiertes Samba FS</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>Mittelwert grunt Laufzeit</t>
+    <t>benchmark: local OS X host filesystem</t>
   </si>
   <si>
-    <t>Mittelwert Reaktionszeit</t>
+    <t>1st test: local guest vboxfx filesystem</t>
   </si>
   <si>
-    <t>Benchmark: lokales FS auf OS/X</t>
+    <t>2nd test: mounted vboxfs filesystem</t>
   </si>
   <si>
-    <t>Vergleich mit Benchmark</t>
+    <t>3rd test: mounted nfs filesystem</t>
   </si>
   <si>
-    <t>Vergleich mit Benchmark, Faktor</t>
+    <t>4th test: mounted tuned nfs filesystem</t>
   </si>
   <si>
-    <t>3-2ter Test: gemountetes NFS FS mit NFS Tuning</t>
+    <t>5th test: mounted smb filesystem</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>compared to the benchmark:</t>
+  </si>
+  <si>
+    <t>average runtime</t>
+  </si>
+  <si>
+    <t>average reaction time</t>
+  </si>
+  <si>
+    <t>grunt runtime ("completed in ...") [s]</t>
+  </si>
+  <si>
+    <t>perl -e 'use Time...' [s]</t>
+  </si>
+  <si>
+    <t>grunt logmillisecs [s]</t>
+  </si>
+  <si>
+    <t>reaction time [s]</t>
+  </si>
+  <si>
+    <t>reaction time: difference from average [s]</t>
+  </si>
+  <si>
+    <t>runtime: difference from average [s]</t>
   </si>
 </sst>
 </file>
@@ -82,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -127,6 +142,14 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -145,7 +168,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="196">
+  <cellStyleXfs count="238">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -342,8 +365,50 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -369,8 +434,14 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="196">
+  <cellStyles count="238">
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
@@ -468,6 +539,27 @@
     <cellStyle name="Besuchter Link" xfId="191" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="193" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="237" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
@@ -565,6 +657,27 @@
     <cellStyle name="Link" xfId="190" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="192" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="236" builtinId="8" hidden="1"/>
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -599,11 +712,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blatt1!$J$1</c:f>
+              <c:f>measurements!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mittelwert grunt Laufzeit</c:v>
+                  <c:v>average runtime</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -611,53 +724,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blatt1!$I$2:$I$7</c:f>
+              <c:f>measurements!$I$2:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Benchmark: lokales FS auf OS/X</c:v>
+                  <c:v>3rd test: mounted nfs filesystem</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1. Test: Lokales vboxfs FS</c:v>
+                  <c:v>4th test: mounted tuned nfs filesystem</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4. Test: exportiertes Samba FS</c:v>
+                  <c:v>2nd test: mounted vboxfs filesystem</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2. Test: gemountetes vboxfs FS</c:v>
+                  <c:v>5th test: mounted smb filesystem</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-2ter Test: gemountetes NFS FS mit NFS Tuning</c:v>
+                  <c:v>1st test: local guest vboxfx filesystem</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3. Test: gemountetes NFS FS</c:v>
+                  <c:v>benchmark: local OS X host filesystem</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blatt1!$J$2:$J$7</c:f>
+              <c:f>measurements!$J$2:$J$7</c:f>
               <c:numCache>
                 <c:formatCode>00,000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.4397</c:v>
+                  <c:v>0.451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4397</c:v>
+                  <c:v>0.7405</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.443</c:v>
+                  <c:v>1.1516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9271</c:v>
+                  <c:v>0.3404</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.8581</c:v>
+                  <c:v>0.3501</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5076</c:v>
+                  <c:v>0.3157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -668,11 +781,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blatt1!$K$1</c:f>
+              <c:f>measurements!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Mittelwert Reaktionszeit</c:v>
+                  <c:v>average reaction time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -680,53 +793,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Blatt1!$I$2:$I$7</c:f>
+              <c:f>measurements!$I$2:$I$7</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>Benchmark: lokales FS auf OS/X</c:v>
+                  <c:v>3rd test: mounted nfs filesystem</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1. Test: Lokales vboxfs FS</c:v>
+                  <c:v>4th test: mounted tuned nfs filesystem</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4. Test: exportiertes Samba FS</c:v>
+                  <c:v>2nd test: mounted vboxfs filesystem</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2. Test: gemountetes vboxfs FS</c:v>
+                  <c:v>5th test: mounted smb filesystem</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3-2ter Test: gemountetes NFS FS mit NFS Tuning</c:v>
+                  <c:v>1st test: local guest vboxfx filesystem</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3. Test: gemountetes NFS FS</c:v>
+                  <c:v>benchmark: local OS X host filesystem</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blatt1!$K$2:$K$7</c:f>
+              <c:f>measurements!$K$2:$K$7</c:f>
               <c:numCache>
                 <c:formatCode>00,000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.62941300868988</c:v>
+                  <c:v>9.705021023750305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.736025977134705</c:v>
+                  <c:v>1.509021019935608</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.755335974693298</c:v>
+                  <c:v>1.531521010398865</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.419809031486511</c:v>
+                  <c:v>0.651912021636963</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.901707983016968</c:v>
+                  <c:v>0.655215978622436</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.310453963279724</c:v>
+                  <c:v>0.610557889938354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -741,11 +854,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2074627864"/>
-        <c:axId val="2110714808"/>
+        <c:axId val="2118545160"/>
+        <c:axId val="2118547544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2074627864"/>
+        <c:axId val="2118545160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -754,7 +867,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110714808"/>
+        <c:crossAx val="2118547544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -762,7 +875,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2110714808"/>
+        <c:axId val="2118547544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2074627864"/>
+        <c:crossAx val="2118545160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -830,15 +943,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1178603</xdr:colOff>
+      <xdr:colOff>162615</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>91056</xdr:rowOff>
+      <xdr:rowOff>120938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1178603</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>209734</xdr:rowOff>
+      <xdr:colOff>162615</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>15498</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -847,8 +960,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="16869094" y="2247660"/>
-          <a:ext cx="0" cy="6310527"/>
+          <a:off x="15133674" y="2302350"/>
+          <a:ext cx="0" cy="6931854"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -880,16 +993,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1375755</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>100641</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2481419</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>100637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1375755</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>38231</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>2481419</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38227</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -898,8 +1011,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="17066246" y="2257245"/>
-          <a:ext cx="0" cy="5937741"/>
+          <a:off x="14912478" y="2670519"/>
+          <a:ext cx="0" cy="6362296"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1256,21 +1369,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="29" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="27" style="4" customWidth="1"/>
-    <col min="9" max="9" width="26.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.5" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="10.83203125" style="3"/>
@@ -1278,7 +1389,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="19">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1286,338 +1397,338 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>13</v>
+      <c r="I1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2" s="4" t="str">
-        <f>A1</f>
-        <v>Benchmark: lokales FS auf OS/X</v>
+      <c r="I2" s="1" t="str">
+        <f>A49</f>
+        <v>3rd test: mounted nfs filesystem</v>
       </c>
       <c r="J2" s="4">
-        <f>C14</f>
-        <v>0.43970000000000004</v>
+        <f>C62</f>
+        <v>0.45099999999999996</v>
       </c>
       <c r="K2" s="4">
-        <f>D14</f>
-        <v>0.62941300868988037</v>
+        <f>D62</f>
+        <v>9.7050210237503052</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4">
-        <v>1420185271.68032</v>
+        <v>1443874982.0924301</v>
       </c>
       <c r="B3" s="4">
-        <v>1420185272.3280001</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.439</v>
+        <v>1443874982.7309999</v>
+      </c>
+      <c r="C3">
+        <v>0.32200000000000001</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D12" si="0">B3-A3</f>
-        <v>0.64768004417419434</v>
+        <v>0.63856983184814453</v>
       </c>
       <c r="E3" s="5">
         <f>1-D3/$D$14</f>
-        <v>-2.9022335465129112E-2</v>
+        <v>-4.5879256285785264E-2</v>
       </c>
       <c r="F3" s="5">
         <f>1-C3/$C$14</f>
-        <v>1.5919945417330883E-3</v>
+        <v>-1.9955654101995624E-2</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="1" t="str">
-        <f>A17</f>
-        <v>1. Test: Lokales vboxfs FS</v>
+        <f>A65</f>
+        <v>4th test: mounted tuned nfs filesystem</v>
       </c>
       <c r="J3" s="4">
-        <f>C30</f>
-        <v>0.43970000000000004</v>
+        <f>C78</f>
+        <v>0.74050000000000005</v>
       </c>
       <c r="K3" s="4">
-        <f>D30</f>
-        <v>0.73602597713470463</v>
+        <f t="shared" ref="K3" si="1">D78</f>
+        <v>1.509021019935608</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4">
-        <v>1420185276.6461999</v>
+        <v>1443874983.7042401</v>
       </c>
       <c r="B4" s="4">
-        <v>1420185277.2820001</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.46600000000000003</v>
+        <v>1443874984.3369999</v>
+      </c>
+      <c r="C4">
+        <v>0.317</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>0.63580012321472168</v>
+        <v>0.63275980949401855</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E12" si="1">1-D4/$D$14</f>
-        <v>-1.0147731992600661E-2</v>
+        <f t="shared" ref="E4:E12" si="2">1-D4/$D$14</f>
+        <v>-3.6363332489087519E-2</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F12" si="2">1-C4/$C$14</f>
-        <v>-5.9813509210825622E-2</v>
+        <f t="shared" ref="F4:F12" si="3">1-C4/$C$14</f>
+        <v>-4.1178333861260352E-3</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f>A65</f>
-        <v>4. Test: exportiertes Samba FS</v>
+        <f>A33</f>
+        <v>2nd test: mounted vboxfs filesystem</v>
       </c>
       <c r="J4" s="4">
-        <f>C78</f>
-        <v>0.44299999999999995</v>
+        <f>C46</f>
+        <v>1.1515999999999997</v>
       </c>
       <c r="K4" s="4">
-        <f>D78</f>
-        <v>0.75533597469329838</v>
+        <f>D46</f>
+        <v>1.5315210103988648</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="4">
-        <v>1420185278.82441</v>
+        <v>1443874985.1106901</v>
       </c>
       <c r="B5" s="4">
-        <v>1420185279.4879999</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0.42199999999999999</v>
+        <v>1443874985.747</v>
+      </c>
+      <c r="C5">
+        <v>0.313</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="0"/>
-        <v>0.6635899543762207</v>
+        <v>0.63630986213684082</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="1"/>
-        <v>-5.4299712930114818E-2</v>
+        <f t="shared" si="2"/>
+        <v>-4.2177773185580136E-2</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="2"/>
-        <v>4.0254719126677441E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.5524231865694578E-3</v>
       </c>
       <c r="I5" s="1" t="str">
-        <f>A33</f>
-        <v>2. Test: gemountetes vboxfs FS</v>
+        <f>A81</f>
+        <v>5th test: mounted smb filesystem</v>
       </c>
       <c r="J5" s="4">
-        <f>C46</f>
-        <v>1.9271</v>
+        <f>C94</f>
+        <v>0.34040000000000004</v>
       </c>
       <c r="K5" s="4">
-        <f>D46</f>
-        <v>2.4198090314865111</v>
+        <f>D94</f>
+        <v>0.65191202163696294</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4">
-        <v>1420185281.0310099</v>
+        <v>1443874986.4568901</v>
       </c>
       <c r="B6" s="4">
-        <v>1420185281.6949999</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0.436</v>
+        <v>1443874987.053</v>
+      </c>
+      <c r="C6">
+        <v>0.314</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>0.66399002075195312</v>
+        <v>0.59610986709594727</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="1"/>
-        <v>-5.4935331149326805E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.3663641205039498E-2</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="2"/>
-        <v>8.4148282920173401E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.3848590433955845E-3</v>
       </c>
       <c r="I6" s="1" t="str">
-        <f>A81</f>
-        <v>3-2ter Test: gemountetes NFS FS mit NFS Tuning</v>
+        <f>A17</f>
+        <v>1st test: local guest vboxfx filesystem</v>
       </c>
       <c r="J6" s="4">
-        <f>C94</f>
-        <v>0.85809999999999997</v>
+        <f>C30</f>
+        <v>0.35009999999999997</v>
       </c>
       <c r="K6" s="4">
-        <f>D94</f>
-        <v>1.9017079830169679</v>
+        <f>D30</f>
+        <v>0.65521597862243652</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="4">
-        <v>1420185282.4879401</v>
+        <v>1443874987.7908299</v>
       </c>
       <c r="B7" s="4">
-        <v>1420185283.0969999</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.45900000000000002</v>
+        <v>1443874988.3699999</v>
+      </c>
+      <c r="C7">
+        <v>0.31900000000000001</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" si="0"/>
-        <v>0.60905981063842773</v>
+        <v>0.57916998863220215</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="1"/>
-        <v>3.2336792806074488E-2</v>
+        <f t="shared" si="2"/>
+        <v>5.1408558997282694E-2</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="2"/>
-        <v>-4.3893563793495627E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.0452961672474004E-2</v>
       </c>
       <c r="I7" s="1" t="str">
-        <f>A49</f>
-        <v>3. Test: gemountetes NFS FS</v>
+        <f>A1</f>
+        <v>benchmark: local OS X host filesystem</v>
       </c>
       <c r="J7" s="4">
-        <f>C62</f>
-        <v>0.50760000000000005</v>
+        <f>C14</f>
+        <v>0.31569999999999998</v>
       </c>
       <c r="K7" s="4">
-        <f>D62</f>
-        <v>6.3104539632797243</v>
+        <f>D14</f>
+        <v>0.61055788993835447</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="4">
-        <v>1420185283.78145</v>
+        <v>1443874989.07149</v>
       </c>
       <c r="B8" s="4">
-        <v>1420185284.4070001</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.42399999999999999</v>
+        <v>1443874989.6719999</v>
+      </c>
+      <c r="C8">
+        <v>0.312</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>0.6255500316619873</v>
+        <v>0.6005098819732666</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="1"/>
-        <v>6.1374280076190724E-3</v>
+        <f t="shared" si="2"/>
+        <v>1.645709298114606E-2</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="2"/>
-        <v>3.5706163293154569E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.1719987329743331E-2</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="4">
-        <v>1420185285.0388801</v>
+        <v>1443874990.3910601</v>
       </c>
       <c r="B9" s="4">
-        <v>1420185285.619</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.42299999999999999</v>
+        <v>1443874990.9879999</v>
+      </c>
+      <c r="C9">
+        <v>0.31900000000000001</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>0.58011984825134277</v>
+        <v>0.5969398021697998</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>7.8316081425042428E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.2304335089224137E-2</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="2"/>
-        <v>3.7980441209915949E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.0452961672474004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="4">
-        <v>1420185286.2221999</v>
+        <v>1443874991.7049</v>
       </c>
       <c r="B10" s="4">
-        <v>1420185286.8239999</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.43</v>
+        <v>1443874992.29</v>
+      </c>
+      <c r="C10">
+        <v>0.316</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>0.60179996490478516</v>
+        <v>0.58509993553161621</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>4.3871104352564361E-2</v>
+        <f t="shared" si="2"/>
+        <v>4.1696217224068022E-2</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="2"/>
-        <v>2.2060495792585955E-2</v>
+        <f t="shared" si="3"/>
+        <v>-9.5026924295216197E-4</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="4">
-        <v>1420185287.4131899</v>
+        <v>1443874993.1503</v>
       </c>
       <c r="B11" s="4">
-        <v>1420185288.0320001</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0.42699999999999999</v>
+        <v>1443874993.7950001</v>
+      </c>
+      <c r="C11">
+        <v>0.314</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>0.61881017684936523</v>
+        <v>0.64470005035400391</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="1"/>
-        <v>1.6845587387183003E-2</v>
+        <f t="shared" si="2"/>
+        <v>-5.5919612174853084E-2</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="2"/>
-        <v>2.8883329542870206E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.3848590433955845E-3</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="4">
-        <v>1420185288.59127</v>
+        <v>1443874994.60659</v>
       </c>
       <c r="B12" s="4">
-        <v>1420185289.2390001</v>
-      </c>
-      <c r="C12" s="4">
-        <v>0.47099999999999997</v>
+        <v>1443874995.2019999</v>
+      </c>
+      <c r="C12">
+        <v>0.311</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>0.64773011207580566</v>
+        <v>0.59540987014770508</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="1"/>
-        <v>-2.9101882441311844E-2</v>
+        <f t="shared" si="2"/>
+        <v>2.481012863854537E-2</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="2"/>
-        <v>-7.1184898794632634E-2</v>
+        <f t="shared" si="3"/>
+        <v>1.4887551472917315E-2</v>
       </c>
     </row>
     <row r="13" spans="1:11" hidden="1">
@@ -1630,20 +1741,20 @@
     </row>
     <row r="14" spans="1:11" ht="18">
       <c r="B14" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C14" s="6">
         <f>AVERAGE(C3:C12)</f>
-        <v>0.43970000000000004</v>
+        <v>0.31569999999999998</v>
       </c>
       <c r="D14" s="6">
         <f>AVERAGE(D3:D12)</f>
-        <v>0.62941300868988037</v>
+        <v>0.61055788993835447</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18">
       <c r="B15" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="8">
         <f>C14/$C$14</f>
@@ -1656,7 +1767,7 @@
     </row>
     <row r="17" spans="1:8" ht="19">
       <c r="A17" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1666,254 +1777,260 @@
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>6</v>
+      <c r="A18" s="4" t="str">
+        <f>A2</f>
+        <v>perl -e 'use Time...' [s]</v>
+      </c>
+      <c r="B18" s="4" t="str">
+        <f t="shared" ref="B18:F18" si="4">B2</f>
+        <v>grunt logmillisecs [s]</v>
+      </c>
+      <c r="C18" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>grunt runtime ("completed in ...") [s]</v>
+      </c>
+      <c r="D18" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>reaction time [s]</v>
+      </c>
+      <c r="E18" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>reaction time: difference from average [s]</v>
+      </c>
+      <c r="F18" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>runtime: difference from average [s]</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="4">
-        <v>1420022924.23559</v>
+        <v>1443875193.3685501</v>
       </c>
       <c r="B19" s="4">
-        <v>1420022924.9990001</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0.439</v>
+        <v>1443875194.023</v>
+      </c>
+      <c r="C19">
+        <v>0.33300000000000002</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:D28" si="3">B19-A19</f>
-        <v>0.76341009140014648</v>
+        <f t="shared" ref="D19:D28" si="5">B19-A19</f>
+        <v>0.6544499397277832</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" ref="E19:E28" si="4">1-D19/$D$30</f>
-        <v>-3.7205363827029769E-2</v>
+        <f t="shared" ref="E19:E28" si="6">1-D19/$D$30</f>
+        <v>1.1691395198631938E-3</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" ref="F19:F28" si="5">1-C19/$C$30</f>
-        <v>1.5919945417330883E-3</v>
+        <f t="shared" ref="F19:F28" si="7">1-C19/$C$30</f>
+        <v>4.8843187660668197E-2</v>
       </c>
       <c r="H19" s="3"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="4">
-        <v>1420022926.6348701</v>
+        <v>1443875195.2227399</v>
       </c>
       <c r="B20" s="4">
-        <v>1420022927.448</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.46600000000000003</v>
+        <v>1443875195.8889999</v>
+      </c>
+      <c r="C20">
+        <v>0.36399999999999999</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="3"/>
-        <v>0.81312990188598633</v>
+        <f t="shared" si="5"/>
+        <v>0.6662600040435791</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="4"/>
-        <v>-0.1047570699222351</v>
+        <f t="shared" si="6"/>
+        <v>-1.6855549592001973E-2</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="5"/>
-        <v>-5.9813509210825622E-2</v>
+        <f t="shared" si="7"/>
+        <v>-3.9702942016566656E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="4">
-        <v>1420022928.3482399</v>
+        <v>1443875196.64678</v>
       </c>
       <c r="B21" s="4">
-        <v>1420022929.0209999</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0.42199999999999999</v>
+        <v>1443875197.3</v>
+      </c>
+      <c r="C21">
+        <v>0.36499999999999999</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="3"/>
-        <v>0.672760009765625</v>
+        <f t="shared" si="5"/>
+        <v>0.65321993827819824</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="4"/>
-        <v>8.5956160970526385E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.0463853284452558E-3</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="5"/>
-        <v>4.0254719126677441E-2</v>
+        <f t="shared" si="7"/>
+        <v>-4.2559268780348436E-2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="4">
-        <v>1420022930.2277501</v>
+        <v>1443875198.3022299</v>
       </c>
       <c r="B22" s="4">
-        <v>1420022930.947</v>
-      </c>
-      <c r="C22" s="4">
-        <v>0.436</v>
+        <v>1443875198.9849999</v>
+      </c>
+      <c r="C22">
+        <v>0.33300000000000002</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="3"/>
-        <v>0.71924996376037598</v>
+        <f t="shared" si="5"/>
+        <v>0.6827700138092041</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="4"/>
-        <v>2.2792691963993472E-2</v>
+        <f t="shared" si="6"/>
+        <v>-4.2053362686146345E-2</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="5"/>
-        <v>8.4148282920173401E-3</v>
+        <f t="shared" si="7"/>
+        <v>4.8843187660668197E-2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="4">
-        <v>1420022931.6673701</v>
+        <v>1443875199.73382</v>
       </c>
       <c r="B23" s="4">
-        <v>1420022932.391</v>
-      </c>
-      <c r="C23" s="4">
-        <v>0.45900000000000002</v>
+        <v>1443875200.3929999</v>
+      </c>
+      <c r="C23">
+        <v>0.33300000000000002</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="3"/>
-        <v>0.72362995147705078</v>
+        <f t="shared" si="5"/>
+        <v>0.6591799259185791</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="4"/>
-        <v>1.6841831732503088E-2</v>
+        <f t="shared" si="6"/>
+        <v>-6.0498330710381243E-3</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="5"/>
-        <v>-4.3893563793495627E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.8843187660668197E-2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="4">
-        <v>1420022933.0193801</v>
+        <v>1443875201.20754</v>
       </c>
       <c r="B24" s="4">
-        <v>1420022933.776</v>
-      </c>
-      <c r="C24" s="4">
-        <v>0.42399999999999999</v>
+        <v>1443875201.812</v>
+      </c>
+      <c r="C24">
+        <v>0.33200000000000002</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="3"/>
-        <v>0.75661993026733398</v>
+        <f t="shared" si="5"/>
+        <v>0.60446000099182129</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.7979927030293394E-2</v>
+        <f t="shared" si="6"/>
+        <v>7.746449916762943E-2</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="5"/>
-        <v>3.5706163293154569E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.1699514424449977E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="4">
-        <v>1420022934.30738</v>
+        <v>1443875202.7672801</v>
       </c>
       <c r="B25" s="4">
-        <v>1420022934.9979999</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0.42299999999999999</v>
+        <v>1443875203.464</v>
+      </c>
+      <c r="C25">
+        <v>0.35599999999999998</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="3"/>
-        <v>0.69061994552612305</v>
+        <f t="shared" si="5"/>
+        <v>0.69671988487243652</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="4"/>
-        <v>6.1690800351020147E-2</v>
+        <f t="shared" si="6"/>
+        <v>-6.3343855467719479E-2</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="5"/>
-        <v>3.7980441209915949E-2</v>
+        <f t="shared" si="7"/>
+        <v>-1.6852327906312636E-2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="4">
-        <v>1420022935.66834</v>
+        <v>1443875204.2936699</v>
       </c>
       <c r="B26" s="4">
-        <v>1420022936.421</v>
-      </c>
-      <c r="C26" s="4">
-        <v>0.43</v>
+        <v>1443875204.925</v>
+      </c>
+      <c r="C26">
+        <v>0.36599999999999999</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="3"/>
-        <v>0.75266003608703613</v>
+        <f t="shared" si="5"/>
+        <v>0.63133001327514648</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.2599825915230243E-2</v>
+        <f t="shared" si="6"/>
+        <v>3.6455102022251107E-2</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="5"/>
-        <v>2.2060495792585955E-2</v>
+        <f t="shared" si="7"/>
+        <v>-4.5415595544130216E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="4">
-        <v>1420022937.02793</v>
+        <v>1443875205.7017801</v>
       </c>
       <c r="B27" s="4">
-        <v>1420022937.7279999</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.42699999999999999</v>
+        <v>1443875206.299</v>
+      </c>
+      <c r="C27">
+        <v>0.32800000000000001</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="3"/>
-        <v>0.70006990432739258</v>
+        <f t="shared" si="5"/>
+        <v>0.59721994400024414</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="4"/>
-        <v>4.8851635573090024E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.8514377723398208E-2</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="5"/>
-        <v>2.8883329542870206E-2</v>
+        <f t="shared" si="7"/>
+        <v>6.3124821479577098E-2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="4">
-        <v>1420022938.3348899</v>
+        <v>1443875207.0694499</v>
       </c>
       <c r="B28" s="4">
-        <v>1420022939.1029999</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0.47099999999999997</v>
+        <v>1443875207.776</v>
+      </c>
+      <c r="C28">
+        <v>0.39100000000000001</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="3"/>
-        <v>0.76811003684997559</v>
+        <f t="shared" si="5"/>
+        <v>0.70655012130737305</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="4"/>
-        <v>-4.3590933896344053E-2</v>
+        <f t="shared" si="6"/>
+        <v>-7.8346902944681496E-2</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="5"/>
-        <v>-7.1184898794632634E-2</v>
+        <f t="shared" si="7"/>
+        <v>-0.11682376463867472</v>
       </c>
     </row>
     <row r="29" spans="1:8" hidden="1">
@@ -1925,287 +2042,295 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="18">
-      <c r="B30" s="6" t="s">
-        <v>7</v>
+      <c r="B30" s="6" t="str">
+        <f>B14</f>
+        <v>average</v>
       </c>
       <c r="C30" s="6">
         <f>AVERAGE(C19:C28)</f>
-        <v>0.43970000000000004</v>
+        <v>0.35009999999999997</v>
       </c>
       <c r="D30" s="6">
         <f>AVERAGE(D19:D28)</f>
-        <v>0.73602597713470463</v>
+        <v>0.65521597862243652</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="18">
-      <c r="B31" s="7" t="s">
-        <v>15</v>
+      <c r="B31" s="6" t="str">
+        <f>B15</f>
+        <v>compared to the benchmark:</v>
       </c>
       <c r="C31" s="8">
         <f>C30/$C$14</f>
-        <v>1</v>
+        <v>1.1089642065251821</v>
       </c>
       <c r="D31" s="8">
         <f>D30/$D$14</f>
-        <v>1.1693847552765688</v>
+        <v>1.0731430867081104</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="19">
       <c r="A33" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>6</v>
+      <c r="A34" s="4" t="str">
+        <f t="shared" ref="A34:F34" si="8">A18</f>
+        <v>perl -e 'use Time...' [s]</v>
+      </c>
+      <c r="B34" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>grunt logmillisecs [s]</v>
+      </c>
+      <c r="C34" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>grunt runtime ("completed in ...") [s]</v>
+      </c>
+      <c r="D34" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>reaction time [s]</v>
+      </c>
+      <c r="E34" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>reaction time: difference from average [s]</v>
+      </c>
+      <c r="F34" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>runtime: difference from average [s]</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4">
-        <v>1420029686.1907401</v>
+        <v>1443873776.9639001</v>
       </c>
       <c r="B35" s="4">
-        <v>1420029688.595</v>
+        <v>1443873778.4089999</v>
       </c>
       <c r="C35" s="4">
-        <v>1.927</v>
+        <v>1.113</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" ref="D35:D44" si="6">B35-A35</f>
-        <v>2.4042599201202393</v>
+        <f t="shared" ref="D35:D44" si="9">B35-A35</f>
+        <v>1.4450998306274414</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" ref="E35:E44" si="7">1-D35/$D$46</f>
-        <v>6.4257597041531556E-3</v>
+        <f t="shared" ref="E35:E44" si="10">1-D35/$D$46</f>
+        <v>5.6428334436571692E-2</v>
       </c>
       <c r="F35" s="5">
         <f>1-C35/$C$46</f>
-        <v>5.1891443101026447E-5</v>
+        <v>3.3518582841264077E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4">
-        <v>1420029690.5827501</v>
+        <v>1443873967.6768701</v>
       </c>
       <c r="B36" s="4">
-        <v>1420029692.9660001</v>
+        <v>1443873969.2149999</v>
       </c>
       <c r="C36" s="4">
-        <v>1.927</v>
+        <v>1.1519999999999999</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="6"/>
-        <v>2.3832499980926514</v>
+        <f t="shared" si="9"/>
+        <v>1.5381298065185547</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="7"/>
-        <v>1.5108230822413748E-2</v>
+        <f t="shared" si="10"/>
+        <v>-4.3151847573861257E-3</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" ref="F36:F44" si="8">1-C36/$C$46</f>
-        <v>5.1891443101026447E-5</v>
+        <f t="shared" ref="F36:F44" si="11">1-C36/$C$46</f>
+        <v>-3.4734282737081124E-4</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4">
-        <v>1420029694.7832301</v>
+        <v>1443873986.42188</v>
       </c>
       <c r="B37" s="4">
-        <v>1420029697.2720001</v>
+        <v>1443873988.0469999</v>
       </c>
       <c r="C37" s="4">
-        <v>1.956</v>
+        <v>1.22</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="6"/>
-        <v>2.4887700080871582</v>
+        <f t="shared" si="9"/>
+        <v>1.6251199245452881</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.8498520215160861E-2</v>
+        <f t="shared" si="10"/>
+        <v>-6.1115004959707786E-2</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="8"/>
-        <v>-1.4996627056198308E-2</v>
+        <f t="shared" si="11"/>
+        <v>-5.9395623480375415E-2</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4">
-        <v>1420029698.83057</v>
+        <v>1443873990.2217</v>
       </c>
       <c r="B38" s="4">
-        <v>1420029701.247</v>
+        <v>1443873991.7190001</v>
       </c>
       <c r="C38" s="4">
-        <v>1.8779999999999999</v>
+        <v>1.1279999999999999</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="6"/>
-        <v>2.4164299964904785</v>
+        <f t="shared" si="9"/>
+        <v>1.4973001480102539</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="7"/>
-        <v>1.3964056469186747E-3</v>
+        <f t="shared" si="10"/>
+        <v>2.2344363646502274E-2</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="8"/>
-        <v>2.5478698562607094E-2</v>
+        <f t="shared" si="11"/>
+        <v>2.0493226814866095E-2</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="4">
-        <v>1420029701.2550099</v>
+        <v>1443873995.8271699</v>
       </c>
       <c r="B39" s="4">
-        <v>1420029703.6589999</v>
+        <v>1443873997.335</v>
       </c>
       <c r="C39" s="4">
-        <v>1.9219999999999999</v>
+        <v>1.145</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="6"/>
-        <v>2.4039900302886963</v>
+        <f t="shared" si="9"/>
+        <v>1.5078301429748535</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="7"/>
-        <v>6.537293229332608E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.5468849113497551E-2</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="8"/>
-        <v>2.6464635981526818E-3</v>
+        <f t="shared" si="11"/>
+        <v>5.7311566516149437E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="4">
-        <v>1420029705.04814</v>
+        <v>1443874003.93168</v>
       </c>
       <c r="B40" s="4">
-        <v>1420029707.4560001</v>
+        <v>1443874005.4349999</v>
       </c>
       <c r="C40" s="4">
-        <v>1.9510000000000001</v>
+        <v>1.1479999999999999</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="6"/>
-        <v>2.4078600406646729</v>
+        <f t="shared" si="9"/>
+        <v>1.5033199787139893</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="7"/>
-        <v>4.9379891827653344E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.8413741302530928E-2</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="8"/>
-        <v>-1.2402054901146764E-2</v>
+        <f t="shared" si="11"/>
+        <v>3.1260854463354137E-3</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="4">
-        <v>1420029709.45467</v>
+        <v>1443874013.0670199</v>
       </c>
       <c r="B41" s="4">
-        <v>1420029711.9260001</v>
+        <v>1443874014.625</v>
       </c>
       <c r="C41" s="4">
-        <v>1.9490000000000001</v>
+        <v>1.133</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="6"/>
-        <v>2.4713301658630371</v>
+        <f t="shared" si="9"/>
+        <v>1.5579800605773926</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.1291405109301609E-2</v>
+        <f t="shared" si="10"/>
+        <v>-1.7276322034678993E-2</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="8"/>
-        <v>-1.1364226039126235E-2</v>
+        <f t="shared" si="11"/>
+        <v>1.6151441472733397E-2</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="4">
-        <v>1420029716.1603899</v>
+        <v>1443874019.3320999</v>
       </c>
       <c r="B42" s="4">
-        <v>1420029718.5220001</v>
+        <v>1443874020.8299999</v>
       </c>
       <c r="C42" s="4">
-        <v>1.847</v>
+        <v>1.103</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="6"/>
-        <v>2.3616101741790771</v>
+        <f t="shared" si="9"/>
+        <v>1.4979000091552734</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="7"/>
-        <v>2.4051012517992687E-2</v>
+        <f t="shared" si="10"/>
+        <v>2.195268691406016E-2</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="8"/>
-        <v>4.156504592392718E-2</v>
+        <f t="shared" si="11"/>
+        <v>4.2202153525529473E-2</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="4">
-        <v>1420029721.3182399</v>
+        <v>1443874023.4126999</v>
       </c>
       <c r="B43" s="4">
-        <v>1420029723.7539999</v>
+        <v>1443874024.914</v>
       </c>
       <c r="C43" s="4">
-        <v>1.9770000000000001</v>
+        <v>1.1579999999999999</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="6"/>
-        <v>2.4357600212097168</v>
+        <f t="shared" si="9"/>
+        <v>1.5013000965118408</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="7"/>
-        <v>-6.5918382465937064E-3</v>
+        <f t="shared" si="10"/>
+        <v>1.9732614624172418E-2</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="8"/>
-        <v>-2.5893830107415416E-2</v>
+        <f t="shared" si="11"/>
+        <v>-5.5574852379300932E-3</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="4">
-        <v>1420029727.1981699</v>
+        <v>1443874026.56177</v>
       </c>
       <c r="B44" s="4">
-        <v>1420029729.6229999</v>
+        <v>1443874028.2030001</v>
       </c>
       <c r="C44" s="4">
-        <v>1.9370000000000001</v>
+        <v>1.216</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="6"/>
-        <v>2.4248299598693848</v>
+        <f t="shared" si="9"/>
+        <v>1.6412301063537598</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.0749275325206984E-3</v>
+        <f t="shared" si="10"/>
+        <v>-7.1634078285561786E-2</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="8"/>
-        <v>-5.1372528670021733E-3</v>
+        <f t="shared" si="11"/>
+        <v>-5.5922195206669301E-2</v>
       </c>
     </row>
     <row r="45" spans="1:6" hidden="1">
@@ -2217,287 +2342,305 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="18">
-      <c r="B46" s="6" t="s">
-        <v>7</v>
+      <c r="B46" s="6" t="str">
+        <f>B30</f>
+        <v>average</v>
       </c>
       <c r="C46" s="6">
         <f>AVERAGE(C35:C44)</f>
-        <v>1.9271</v>
+        <v>1.1515999999999997</v>
       </c>
       <c r="D46" s="6">
         <f>AVERAGE(D35:D44)</f>
-        <v>2.4198090314865111</v>
+        <v>1.5315210103988648</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18">
-      <c r="B47" s="7" t="s">
-        <v>15</v>
+      <c r="B47" s="6" t="str">
+        <f>B31</f>
+        <v>compared to the benchmark:</v>
       </c>
       <c r="C47" s="8">
         <f>C46/$C$14</f>
-        <v>4.3827609733909485</v>
+        <v>3.6477668672790617</v>
       </c>
       <c r="D47" s="8">
         <f>D46/$D$14</f>
-        <v>3.8445488067101281</v>
+        <v>2.5083960679854553</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="19">
       <c r="A49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>6</v>
+      <c r="A50" s="4" t="str">
+        <f t="shared" ref="A50:F50" si="12">A34</f>
+        <v>perl -e 'use Time...' [s]</v>
+      </c>
+      <c r="B50" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>grunt logmillisecs [s]</v>
+      </c>
+      <c r="C50" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>grunt runtime ("completed in ...") [s]</v>
+      </c>
+      <c r="D50" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>reaction time [s]</v>
+      </c>
+      <c r="E50" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>reaction time: difference from average [s]</v>
+      </c>
+      <c r="F50" s="4" t="str">
+        <f t="shared" si="12"/>
+        <v>runtime: difference from average [s]</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="4">
-        <v>1420029236.00686</v>
+        <f>A35</f>
+        <v>1443873776.9639001</v>
       </c>
       <c r="B51" s="4">
-        <v>1420029258.8380001</v>
-      </c>
-      <c r="C51" s="4">
-        <v>0.51700000000000002</v>
+        <v>1443873832.1440001</v>
+      </c>
+      <c r="C51">
+        <v>0.496</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" ref="D51:D60" si="9">B51-A51</f>
-        <v>22.831140041351318</v>
+        <f t="shared" ref="D51:D60" si="13">B51-A51</f>
+        <v>55.180099964141846</v>
       </c>
       <c r="E51" s="5">
         <f>1-D51/$D$62</f>
-        <v>-2.6179869426517959</v>
+        <v>-4.6857269890610329</v>
       </c>
       <c r="F51" s="5">
         <f>1-C51/$C$62</f>
-        <v>-1.8518518518518379E-2</v>
+        <v>-9.9778270509977895E-2</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="4">
-        <v>1420029262.0382299</v>
+        <f t="shared" ref="A52:A60" si="14">A36</f>
+        <v>1443873967.6768701</v>
       </c>
       <c r="B52" s="4">
-        <v>1420029267.9289999</v>
-      </c>
-      <c r="C52" s="4">
+        <v>1443873985.4349999</v>
+      </c>
+      <c r="C52">
         <v>0.48899999999999999</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="9"/>
-        <v>5.8907699584960938</v>
+        <f t="shared" si="13"/>
+        <v>17.758129835128784</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" ref="E52:E60" si="10">1-D52/$D$62</f>
-        <v>6.6506151098756905E-2</v>
+        <f t="shared" ref="E52:E60" si="15">1-D52/$D$62</f>
+        <v>-0.82978787904433826</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" ref="F52:F60" si="11">1-C52/$C$62</f>
-        <v>3.6643026004728241E-2</v>
+        <f t="shared" ref="F52:F60" si="16">1-C52/$C$62</f>
+        <v>-8.4257206208425695E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="4">
-        <v>1420029271.4960799</v>
+        <f t="shared" si="14"/>
+        <v>1443873986.42188</v>
       </c>
       <c r="B53" s="4">
-        <v>1420029277.1429999</v>
-      </c>
-      <c r="C53" s="4">
-        <v>0.58699999999999997</v>
+        <v>1443873988.4389999</v>
+      </c>
+      <c r="C53">
+        <v>0.46899999999999997</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="9"/>
-        <v>5.6469199657440186</v>
+        <f t="shared" si="13"/>
+        <v>2.0171198844909668</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="10"/>
-        <v>0.10514837781826525</v>
+        <f t="shared" si="15"/>
+        <v>0.79215708244684535</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="11"/>
-        <v>-0.15642237982663487</v>
+        <f t="shared" si="16"/>
+        <v>-3.9911308203991247E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="4">
-        <v>1420029280.3752201</v>
+        <f t="shared" si="14"/>
+        <v>1443873990.2217</v>
       </c>
       <c r="B54" s="4">
-        <v>1420029286.1389999</v>
-      </c>
-      <c r="C54" s="4">
-        <v>0.48399999999999999</v>
+        <v>1443873991.52</v>
+      </c>
+      <c r="C54">
+        <v>0.53100000000000003</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="9"/>
-        <v>5.763779878616333</v>
+        <f t="shared" si="13"/>
+        <v>1.29830002784729</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="10"/>
-        <v>8.6629914082959059E-2</v>
+        <f t="shared" si="15"/>
+        <v>0.86622388301168374</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="11"/>
-        <v>4.6493301812450927E-2</v>
+        <f t="shared" si="16"/>
+        <v>-0.17738359201773846</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4">
-        <v>1420029296.7023399</v>
+        <f t="shared" si="14"/>
+        <v>1443873995.8271699</v>
       </c>
       <c r="B55" s="4">
-        <v>1420029307.2850001</v>
-      </c>
-      <c r="C55" s="4">
-        <v>0.499</v>
+        <v>1443874000.4679999</v>
+      </c>
+      <c r="C55">
+        <v>0.38400000000000001</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="9"/>
-        <v>10.58266019821167</v>
+        <f t="shared" si="13"/>
+        <v>4.6408300399780273</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="10"/>
-        <v>-0.67700457998612151</v>
+        <f t="shared" si="15"/>
+        <v>0.52181143877783431</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="11"/>
-        <v>1.694247438928298E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.14855875831485577</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4">
-        <v>1420029308.3085201</v>
+        <f t="shared" si="14"/>
+        <v>1443874003.93168</v>
       </c>
       <c r="B56" s="4">
-        <v>1420029310.306</v>
-      </c>
-      <c r="C56" s="4">
-        <v>0.48099999999999998</v>
+        <v>1443874009.5650001</v>
+      </c>
+      <c r="C56">
+        <v>0.39600000000000002</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="9"/>
-        <v>1.9974799156188965</v>
+        <f t="shared" si="13"/>
+        <v>5.6333200931549072</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="10"/>
-        <v>0.68346494131133018</v>
+        <f t="shared" si="15"/>
+        <v>0.41954581248521328</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="11"/>
-        <v>5.240346729708445E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.12195121951219501</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="4">
-        <v>1420029311.9890399</v>
+        <f t="shared" si="14"/>
+        <v>1443874013.0670199</v>
       </c>
       <c r="B57" s="4">
-        <v>1420029313.3599999</v>
-      </c>
-      <c r="C57" s="4">
-        <v>0.495</v>
+        <v>1443874018.622</v>
+      </c>
+      <c r="C57">
+        <v>0.39600000000000002</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="9"/>
-        <v>1.370959997177124</v>
+        <f t="shared" si="13"/>
+        <v>5.5549800395965576</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="10"/>
-        <v>0.78274780148073586</v>
+        <f t="shared" si="15"/>
+        <v>0.42761792828657363</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="11"/>
-        <v>2.4822695035461084E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.12195121951219501</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="4">
-        <v>1420029319.1487801</v>
+        <f t="shared" si="14"/>
+        <v>1443874019.3320999</v>
       </c>
       <c r="B58" s="4">
-        <v>1420029322.4630001</v>
-      </c>
-      <c r="C58" s="4">
-        <v>0.49199999999999999</v>
+        <v>1443874021.6500001</v>
+      </c>
+      <c r="C58">
+        <v>0.37</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="9"/>
-        <v>3.3142199516296387</v>
+        <f t="shared" si="13"/>
+        <v>2.3179001808166504</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="10"/>
-        <v>0.47480482847748351</v>
+        <f t="shared" si="15"/>
+        <v>0.76116484702668419</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="11"/>
-        <v>3.0732860520094718E-2</v>
+        <f t="shared" si="16"/>
+        <v>0.17960088691796006</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="4">
-        <v>1420029327.84378</v>
+        <f t="shared" si="14"/>
+        <v>1443874023.4126999</v>
       </c>
       <c r="B59" s="4">
-        <v>1420029331.6029999</v>
-      </c>
-      <c r="C59" s="4">
-        <v>0.52100000000000002</v>
+        <v>1443874024.796</v>
+      </c>
+      <c r="C59">
+        <v>0.49099999999999999</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="9"/>
-        <v>3.7592198848724365</v>
+        <f t="shared" si="13"/>
+        <v>1.3833000659942627</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="10"/>
-        <v>0.40428693296121254</v>
+        <f t="shared" si="15"/>
+        <v>0.85746552608087856</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="11"/>
-        <v>-2.6398739164696483E-2</v>
+        <f t="shared" si="16"/>
+        <v>-8.8691796008869339E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="4">
-        <v>1420029332.6756101</v>
+        <f t="shared" si="14"/>
+        <v>1443874026.56177</v>
       </c>
       <c r="B60" s="4">
-        <v>1420029334.6229999</v>
-      </c>
-      <c r="C60" s="4">
-        <v>0.51100000000000001</v>
+        <v>1443874027.8280001</v>
+      </c>
+      <c r="C60">
+        <v>0.48799999999999999</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" si="9"/>
-        <v>1.9473898410797119</v>
+        <f t="shared" si="13"/>
+        <v>1.2662301063537598</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="10"/>
-        <v>0.69140257540717442</v>
+        <f t="shared" si="15"/>
+        <v>0.86952834998965811</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="11"/>
-        <v>-6.6981875492513332E-3</v>
+        <f t="shared" si="16"/>
+        <v>-8.2039911308203983E-2</v>
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1">
@@ -2509,287 +2652,305 @@
       </c>
     </row>
     <row r="62" spans="1:6" ht="18">
-      <c r="B62" s="6" t="s">
-        <v>7</v>
+      <c r="B62" s="6" t="str">
+        <f>B46</f>
+        <v>average</v>
       </c>
       <c r="C62" s="6">
         <f>AVERAGE(C51:C60)</f>
-        <v>0.50760000000000005</v>
+        <v>0.45099999999999996</v>
       </c>
       <c r="D62" s="6">
         <f>AVERAGE(D51:D60)</f>
-        <v>6.3104539632797243</v>
+        <v>9.7050210237503052</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="18">
-      <c r="B63" s="7" t="s">
-        <v>15</v>
+      <c r="B63" s="6" t="str">
+        <f>B47</f>
+        <v>compared to the benchmark:</v>
       </c>
       <c r="C63" s="8">
         <f>C62/$C$14</f>
-        <v>1.1544234705481009</v>
+        <v>1.4285714285714286</v>
       </c>
       <c r="D63" s="8">
         <f>D62/$D$14</f>
-        <v>10.025935079439966</v>
+        <v>15.89533307763852</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="19">
       <c r="A65" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>6</v>
+      <c r="A66" s="4" t="str">
+        <f t="shared" ref="A66:F66" si="17">A50</f>
+        <v>perl -e 'use Time...' [s]</v>
+      </c>
+      <c r="B66" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>grunt logmillisecs [s]</v>
+      </c>
+      <c r="C66" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>grunt runtime ("completed in ...") [s]</v>
+      </c>
+      <c r="D66" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>reaction time [s]</v>
+      </c>
+      <c r="E66" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>reaction time: difference from average [s]</v>
+      </c>
+      <c r="F66" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v>runtime: difference from average [s]</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="4">
-        <v>1420030385.8541501</v>
+        <f>A35</f>
+        <v>1443873776.9639001</v>
       </c>
       <c r="B67" s="4">
-        <v>1420030386.5699999</v>
-      </c>
-      <c r="C67" s="4">
-        <v>0.41699999999999998</v>
+        <v>1443873778.0669999</v>
+      </c>
+      <c r="C67">
+        <v>0.77300000000000002</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" ref="D67:D76" si="12">B67-A67</f>
-        <v>0.71584987640380859</v>
+        <f t="shared" ref="D67:D76" si="18">B67-A67</f>
+        <v>1.1030998229980469</v>
       </c>
       <c r="E67" s="5">
         <f>1-D67/$D$78</f>
-        <v>5.227620504309094E-2</v>
+        <v>0.26899638346646915</v>
       </c>
       <c r="F67" s="5">
         <f>1-C67/$C$78</f>
-        <v>5.8690744920993132E-2</v>
+        <v>-4.3889264010803508E-2</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="4">
-        <v>1420030431.5009601</v>
+        <f t="shared" ref="A68:A76" si="19">A36</f>
+        <v>1443873967.6768701</v>
       </c>
       <c r="B68" s="4">
-        <v>1420030432.2679999</v>
-      </c>
-      <c r="C68" s="4">
-        <v>0.43099999999999999</v>
+        <v>1443873968.9949999</v>
+      </c>
+      <c r="C68">
+        <v>0.80800000000000005</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="12"/>
-        <v>0.76703977584838867</v>
+        <f t="shared" si="18"/>
+        <v>1.3181297779083252</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" ref="E68:E76" si="13">1-D68/$D$78</f>
-        <v>-1.5494828191974452E-2</v>
+        <f t="shared" ref="E68:E76" si="20">1-D68/$D$78</f>
+        <v>0.12650005500614458</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" ref="F68:F76" si="14">1-C68/$C$78</f>
-        <v>2.708803611738142E-2</v>
+        <f t="shared" ref="F68:F76" si="21">1-C68/$C$78</f>
+        <v>-9.1154625253207389E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="4">
-        <v>1420030434.2681301</v>
+        <f t="shared" si="19"/>
+        <v>1443873986.42188</v>
       </c>
       <c r="B69" s="4">
-        <v>1420030435.006</v>
-      </c>
-      <c r="C69" s="4">
-        <v>0.42899999999999999</v>
+        <v>1443873988.0810001</v>
+      </c>
+      <c r="C69">
+        <v>0.69</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="12"/>
-        <v>0.7378699779510498</v>
+        <f t="shared" si="18"/>
+        <v>1.6591200828552246</v>
       </c>
       <c r="E69" s="5">
-        <f t="shared" si="13"/>
-        <v>2.3123480580069855E-2</v>
+        <f t="shared" si="20"/>
+        <v>-9.9467841028497705E-2</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" si="14"/>
-        <v>3.1602708803611601E-2</v>
+        <f t="shared" si="21"/>
+        <v>6.8197164078325545E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="4">
-        <v>1420030436.09322</v>
+        <f t="shared" si="19"/>
+        <v>1443873990.2217</v>
       </c>
       <c r="B70" s="4">
-        <v>1420030436.8610001</v>
-      </c>
-      <c r="C70" s="4">
-        <v>0.46500000000000002</v>
+        <v>1443873992.319</v>
+      </c>
+      <c r="C70">
+        <v>0.9</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" si="12"/>
-        <v>0.76778006553649902</v>
+        <f t="shared" si="18"/>
+        <v>2.0973000526428223</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="13"/>
-        <v>-1.6474908199961558E-2</v>
+        <f t="shared" si="20"/>
+        <v>-0.38984150978381793</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="14"/>
-        <v>-4.9661399548532881E-2</v>
+        <f t="shared" si="21"/>
+        <v>-0.21539500337609718</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="4">
-        <v>1420030437.74101</v>
+        <f t="shared" si="19"/>
+        <v>1443873995.8271699</v>
       </c>
       <c r="B71" s="4">
-        <v>1420030438.5639999</v>
-      </c>
-      <c r="C71" s="4">
-        <v>0.45600000000000002</v>
+        <v>1443873997.1059999</v>
+      </c>
+      <c r="C71">
+        <v>0.64700000000000002</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" si="12"/>
-        <v>0.82298994064331055</v>
+        <f t="shared" si="18"/>
+        <v>1.2788300514221191</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="13"/>
-        <v>-8.9568044177271933E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.15254324855150891</v>
       </c>
       <c r="F71" s="5">
-        <f t="shared" si="14"/>
-        <v>-2.9345372460496844E-2</v>
+        <f t="shared" si="21"/>
+        <v>0.12626603646185008</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="4">
-        <v>1420030439.23525</v>
+        <f t="shared" si="19"/>
+        <v>1443874003.93168</v>
       </c>
       <c r="B72" s="4">
-        <v>1420030439.983</v>
-      </c>
-      <c r="C72" s="4">
-        <v>0.45700000000000002</v>
+        <v>1443874005.247</v>
+      </c>
+      <c r="C72">
+        <v>0.73899999999999999</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" si="12"/>
-        <v>0.74775004386901855</v>
+        <f t="shared" si="18"/>
+        <v>1.3153200149536133</v>
       </c>
       <c r="E72" s="5">
-        <f t="shared" si="13"/>
-        <v>1.0043121310831293E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.12836203235277677</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" si="14"/>
-        <v>-3.1602708803611934E-2</v>
+        <f t="shared" si="21"/>
+        <v>2.02565833896029E-3</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="4">
-        <v>1420030440.6440799</v>
+        <f t="shared" si="19"/>
+        <v>1443874013.0670199</v>
       </c>
       <c r="B73" s="4">
-        <v>1420030441.369</v>
-      </c>
-      <c r="C73" s="4">
-        <v>0.42899999999999999</v>
+        <v>1443874014.533</v>
+      </c>
+      <c r="C73">
+        <v>0.91100000000000003</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" si="12"/>
-        <v>0.72492003440856934</v>
+        <f t="shared" si="18"/>
+        <v>1.465980052947998</v>
       </c>
       <c r="E73" s="5">
-        <f t="shared" si="13"/>
-        <v>4.0268094336535887E-2</v>
+        <f t="shared" si="20"/>
+        <v>2.8522443636634365E-2</v>
       </c>
       <c r="F73" s="5">
-        <f t="shared" si="14"/>
-        <v>3.1602708803611601E-2</v>
+        <f t="shared" si="21"/>
+        <v>-0.23024983119513842</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="4">
-        <v>1420030442.0669701</v>
+        <f t="shared" si="19"/>
+        <v>1443874019.3320999</v>
       </c>
       <c r="B74" s="4">
-        <v>1420030442.7880001</v>
-      </c>
-      <c r="C74" s="4">
-        <v>0.42699999999999999</v>
+        <v>1443874020.302</v>
+      </c>
+      <c r="C74">
+        <v>0.59199999999999997</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" si="12"/>
-        <v>0.72102999687194824</v>
+        <f t="shared" si="18"/>
+        <v>0.96990013122558594</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" si="13"/>
-        <v>4.5418170153063264E-2</v>
+        <f t="shared" si="20"/>
+        <v>0.35726532737961936</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="14"/>
-        <v>3.6117381489841893E-2</v>
+        <f t="shared" si="21"/>
+        <v>0.20054017555705617</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="4">
-        <v>1420030443.4918201</v>
+        <f t="shared" si="19"/>
+        <v>1443874023.4126999</v>
       </c>
       <c r="B75" s="4">
-        <v>1420030444.2360001</v>
-      </c>
-      <c r="C75" s="4">
-        <v>0.45700000000000002</v>
+        <v>1443874025.3150001</v>
+      </c>
+      <c r="C75">
+        <v>0.56999999999999995</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="12"/>
-        <v>0.74417996406555176</v>
+        <f t="shared" si="18"/>
+        <v>1.9023001194000244</v>
       </c>
       <c r="E75" s="5">
-        <f t="shared" si="13"/>
-        <v>1.4769600550637696E-2</v>
+        <f t="shared" si="20"/>
+        <v>-0.26061870197222192</v>
       </c>
       <c r="F75" s="5">
-        <f t="shared" si="14"/>
-        <v>-3.1602708803611934E-2</v>
+        <f t="shared" si="21"/>
+        <v>0.23024983119513853</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="4">
-        <v>1420030448.81005</v>
+        <f t="shared" si="19"/>
+        <v>1443874026.56177</v>
       </c>
       <c r="B76" s="4">
-        <v>1420030449.6140001</v>
-      </c>
-      <c r="C76" s="4">
-        <v>0.46200000000000002</v>
+        <v>1443874028.5420001</v>
+      </c>
+      <c r="C76">
+        <v>0.77500000000000002</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="12"/>
-        <v>0.80395007133483887</v>
+        <f t="shared" si="18"/>
+        <v>1.9802300930023193</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" si="13"/>
-        <v>-6.4360891405020215E-2</v>
+        <f t="shared" si="20"/>
+        <v>-0.31226143760861502</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="14"/>
-        <v>-4.2889390519187609E-2</v>
+        <f t="shared" si="21"/>
+        <v>-4.6590141796083673E-2</v>
       </c>
     </row>
     <row r="77" spans="1:6" hidden="1">
@@ -2801,34 +2962,36 @@
       </c>
     </row>
     <row r="78" spans="1:6" ht="18">
-      <c r="B78" s="6" t="s">
-        <v>7</v>
+      <c r="B78" s="6" t="str">
+        <f>B62</f>
+        <v>average</v>
       </c>
       <c r="C78" s="6">
         <f>AVERAGE(C67:C76)</f>
-        <v>0.44299999999999995</v>
+        <v>0.74050000000000005</v>
       </c>
       <c r="D78" s="6">
         <f>AVERAGE(D67:D76)</f>
-        <v>0.75533597469329838</v>
+        <v>1.509021019935608</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="18">
-      <c r="B79" s="7" t="s">
-        <v>15</v>
+      <c r="B79" s="6" t="str">
+        <f>B63</f>
+        <v>compared to the benchmark:</v>
       </c>
       <c r="C79" s="8">
         <f>C78/$C$14</f>
-        <v>1.0075051171253124</v>
+        <v>2.3455812480202729</v>
       </c>
       <c r="D79" s="8">
         <f>D78/$D$14</f>
-        <v>1.2000641300146082</v>
+        <v>2.4715445411539396</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="19">
       <c r="A81" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2842,246 +3005,246 @@
         <v>0</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D82" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F82" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="4">
-        <v>1420811260.5796001</v>
+        <v>1443874794.3933899</v>
       </c>
       <c r="B83" s="4">
-        <v>1420811262.777</v>
-      </c>
-      <c r="C83" s="4">
-        <v>0.84399999999999997</v>
+        <v>1443874795.0020001</v>
+      </c>
+      <c r="C83">
+        <v>0.32600000000000001</v>
       </c>
       <c r="D83" s="4">
-        <f t="shared" ref="D83:D92" si="15">B83-A83</f>
-        <v>2.1973998546600342</v>
+        <f t="shared" ref="D83:D92" si="22">B83-A83</f>
+        <v>0.60861015319824219</v>
       </c>
       <c r="E83" s="5">
         <f>1-D83/$D$94</f>
-        <v>-0.15548752715123237</v>
+        <v>6.6422871494207114E-2</v>
       </c>
       <c r="F83" s="5">
         <f>1-C83/$C$94</f>
-        <v>1.6431651322689644E-2</v>
+        <v>4.2303172737955363E-2</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="4">
-        <v>1420811265.57637</v>
+        <v>1443874797.3524101</v>
       </c>
       <c r="B84" s="4">
-        <v>1420811267.835</v>
-      </c>
-      <c r="C84" s="4">
-        <v>0.84499999999999997</v>
+        <v>1443874798.0320001</v>
+      </c>
+      <c r="C84">
+        <v>0.36099999999999999</v>
       </c>
       <c r="D84" s="4">
-        <f t="shared" si="15"/>
-        <v>2.2586300373077393</v>
+        <f t="shared" si="22"/>
+        <v>0.67958998680114746</v>
       </c>
       <c r="E84" s="5">
-        <f t="shared" ref="E84:E92" si="16">1-D84/$D$94</f>
-        <v>-0.18768499552940399</v>
+        <f t="shared" ref="E84:E92" si="23">1-D84/$D$94</f>
+        <v>-4.2456595745365533E-2</v>
       </c>
       <c r="F84" s="5">
-        <f t="shared" ref="F84:F92" si="17">1-C84/$C$94</f>
-        <v>1.5266285980654937E-2</v>
+        <f t="shared" ref="F84:F92" si="24">1-C84/$C$94</f>
+        <v>-6.051703877790815E-2</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="4">
-        <v>1420811271.36766</v>
+        <v>1443874798.9112799</v>
       </c>
       <c r="B85" s="4">
-        <v>1420811272.964</v>
-      </c>
-      <c r="C85" s="4">
-        <v>0.89100000000000001</v>
+        <v>1443874799.543</v>
+      </c>
+      <c r="C85">
+        <v>0.32700000000000001</v>
       </c>
       <c r="D85" s="4">
-        <f t="shared" si="15"/>
-        <v>1.5963399410247803</v>
+        <f t="shared" si="22"/>
+        <v>0.63172006607055664</v>
       </c>
       <c r="E85" s="5">
-        <f t="shared" si="16"/>
-        <v>0.16057567445646204</v>
+        <f t="shared" si="23"/>
+        <v>3.0973436439634794E-2</v>
       </c>
       <c r="F85" s="5">
-        <f t="shared" si="17"/>
-        <v>-3.8340519752942503E-2</v>
+        <f t="shared" si="24"/>
+        <v>3.9365452408930746E-2</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="4">
-        <v>1420811275.2078099</v>
+        <v>1443874800.28637</v>
       </c>
       <c r="B86" s="4">
-        <v>1420811276.9649999</v>
-      </c>
-      <c r="C86" s="4">
-        <v>0.84799999999999998</v>
+        <v>1443874801</v>
+      </c>
+      <c r="C86">
+        <v>0.36</v>
       </c>
       <c r="D86" s="4">
-        <f t="shared" si="15"/>
-        <v>1.7571899890899658</v>
+        <f t="shared" si="22"/>
+        <v>0.71362996101379395</v>
       </c>
       <c r="E86" s="5">
-        <f t="shared" si="16"/>
-        <v>7.5993788330073309E-2</v>
+        <f t="shared" si="23"/>
+        <v>-9.4672190922106658E-2</v>
       </c>
       <c r="F86" s="5">
-        <f t="shared" si="17"/>
-        <v>1.1770189954550703E-2</v>
+        <f t="shared" si="24"/>
+        <v>-5.7579318448883532E-2</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="4">
-        <v>1420811277.81617</v>
+        <v>1443874802.71225</v>
       </c>
       <c r="B87" s="4">
-        <v>1420811279.9809999</v>
-      </c>
-      <c r="C87" s="4">
-        <v>0.83399999999999996</v>
+        <v>1443874803.408</v>
+      </c>
+      <c r="C87">
+        <v>0.35299999999999998</v>
       </c>
       <c r="D87" s="4">
-        <f t="shared" si="15"/>
-        <v>2.1648299694061279</v>
+        <f t="shared" si="22"/>
+        <v>0.69574999809265137</v>
       </c>
       <c r="E87" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.13836087808377906</v>
+        <f t="shared" si="23"/>
+        <v>-6.724523402039817E-2</v>
       </c>
       <c r="F87" s="5">
-        <f t="shared" si="17"/>
-        <v>2.8085304743036943E-2</v>
+        <f t="shared" si="24"/>
+        <v>-3.7015276145710763E-2</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="4">
-        <v>1420811280.75298</v>
+        <v>1443874804.16065</v>
       </c>
       <c r="B88" s="4">
-        <v>1420811283.027</v>
-      </c>
-      <c r="C88" s="4">
-        <v>0.84599999999999997</v>
+        <v>1443874804.7909999</v>
+      </c>
+      <c r="C88">
+        <v>0.32800000000000001</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" si="15"/>
-        <v>2.2740199565887451</v>
+        <f t="shared" si="22"/>
+        <v>0.63034987449645996</v>
       </c>
       <c r="E88" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.19577767822224845</v>
+        <f t="shared" si="23"/>
+        <v>3.3075240868177369E-2</v>
       </c>
       <c r="F88" s="5">
-        <f t="shared" si="17"/>
-        <v>1.4100920638620229E-2</v>
+        <f t="shared" si="24"/>
+        <v>3.6427732079906017E-2</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="4">
-        <v>1420811283.6477301</v>
+        <v>1443874805.4866199</v>
       </c>
       <c r="B89" s="4">
-        <v>1420811285.0910001</v>
-      </c>
-      <c r="C89" s="4">
-        <v>0.89300000000000002</v>
+        <v>1443874806.138</v>
+      </c>
+      <c r="C89">
+        <v>0.36199999999999999</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" si="15"/>
-        <v>1.4432699680328369</v>
+        <f t="shared" si="22"/>
+        <v>0.65138006210327148</v>
       </c>
       <c r="E89" s="5">
-        <f t="shared" si="16"/>
-        <v>0.24106646187436265</v>
+        <f t="shared" si="23"/>
+        <v>8.1599896310502462E-4</v>
       </c>
       <c r="F89" s="5">
-        <f t="shared" si="17"/>
-        <v>-4.0671250437012141E-2</v>
+        <f t="shared" si="24"/>
+        <v>-6.3454759106932768E-2</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="4">
-        <v>1420811286.34357</v>
+        <v>1443874806.80651</v>
       </c>
       <c r="B90" s="4">
-        <v>1420811288.148</v>
-      </c>
-      <c r="C90" s="4">
-        <v>0.89100000000000001</v>
+        <v>1443874807.3989999</v>
+      </c>
+      <c r="C90">
+        <v>0.315</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" si="15"/>
-        <v>1.8044300079345703</v>
+        <f t="shared" si="22"/>
+        <v>0.59248995780944824</v>
       </c>
       <c r="E90" s="5">
-        <f t="shared" si="16"/>
-        <v>5.1152950900521965E-2</v>
+        <f t="shared" si="23"/>
+        <v>9.1150434192492469E-2</v>
       </c>
       <c r="F90" s="5">
-        <f t="shared" si="17"/>
-        <v>-3.8340519752942503E-2</v>
+        <f t="shared" si="24"/>
+        <v>7.4618096357226937E-2</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="4">
-        <v>1420811288.9435</v>
+        <v>1443874808.11079</v>
       </c>
       <c r="B91" s="4">
-        <v>1420811291.1170001</v>
-      </c>
-      <c r="C91" s="4">
-        <v>0.83099999999999996</v>
+        <v>1443874808.7620001</v>
+      </c>
+      <c r="C91">
+        <v>0.35</v>
       </c>
       <c r="D91" s="4">
-        <f t="shared" si="15"/>
-        <v>2.1735000610351562</v>
+        <f t="shared" si="22"/>
+        <v>0.65121006965637207</v>
       </c>
       <c r="E91" s="5">
-        <f t="shared" si="16"/>
-        <v>-0.14291998584714527</v>
+        <f t="shared" si="23"/>
+        <v>1.076758760834351E-3</v>
       </c>
       <c r="F91" s="5">
-        <f t="shared" si="17"/>
-        <v>3.1581400769141177E-2</v>
+        <f t="shared" si="24"/>
+        <v>-2.8202115158636687E-2</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="4">
-        <v>1420811291.82353</v>
+        <v>1443874809.38361</v>
       </c>
       <c r="B92" s="4">
-        <v>1420811293.171</v>
-      </c>
-      <c r="C92" s="4">
-        <v>0.85799999999999998</v>
+        <v>1443874810.0480001</v>
+      </c>
+      <c r="C92">
+        <v>0.32200000000000001</v>
       </c>
       <c r="D92" s="4">
-        <f t="shared" si="15"/>
-        <v>1.3474700450897217</v>
+        <f t="shared" si="22"/>
+        <v>0.66439008712768555</v>
       </c>
       <c r="E92" s="5">
-        <f t="shared" si="16"/>
-        <v>0.29144218927238996</v>
+        <f t="shared" si="23"/>
+        <v>-1.9140720030580205E-2</v>
       </c>
       <c r="F92" s="5">
-        <f t="shared" si="17"/>
-        <v>1.1653653420351517E-4</v>
+        <f t="shared" si="24"/>
+        <v>5.4054054054054168E-2</v>
       </c>
     </row>
     <row r="93" spans="1:6" hidden="1">
@@ -3093,29 +3256,31 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="18">
-      <c r="B94" s="6" t="s">
-        <v>7</v>
+      <c r="B94" s="6" t="str">
+        <f>B78</f>
+        <v>average</v>
       </c>
       <c r="C94" s="6">
         <f>AVERAGE(C83:C92)</f>
-        <v>0.85809999999999997</v>
+        <v>0.34040000000000004</v>
       </c>
       <c r="D94" s="6">
         <f>AVERAGE(D83:D92)</f>
-        <v>1.9017079830169679</v>
+        <v>0.65191202163696294</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="18">
-      <c r="B95" s="7" t="s">
-        <v>15</v>
+      <c r="B95" s="6" t="str">
+        <f>B79</f>
+        <v>compared to the benchmark:</v>
       </c>
       <c r="C95" s="8">
         <f>C94/$C$14</f>
-        <v>1.9515578803729814</v>
+        <v>1.0782388343363956</v>
       </c>
       <c r="D95" s="8">
         <f>D94/$D$14</f>
-        <v>3.0213992350990049</v>
+        <v>1.0677317128811223</v>
       </c>
     </row>
   </sheetData>

--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -66,12 +66,6 @@
     <t>compared to the benchmark:</t>
   </si>
   <si>
-    <t>average runtime</t>
-  </si>
-  <si>
-    <t>average reaction time</t>
-  </si>
-  <si>
     <t>grunt runtime ("completed in ...") [s]</t>
   </si>
   <si>
@@ -88,6 +82,12 @@
   </si>
   <si>
     <t>runtime: difference from average [s]</t>
+  </si>
+  <si>
+    <t>average runtime [seconds]</t>
+  </si>
+  <si>
+    <t>average reaction time [seconds]</t>
   </si>
 </sst>
 </file>
@@ -168,9 +168,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="238">
+  <cellStyleXfs count="246">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -441,7 +449,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="238">
+  <cellStyles count="246">
     <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
@@ -560,6 +568,10 @@
     <cellStyle name="Besuchter Link" xfId="233" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="235" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="245" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
@@ -678,6 +690,10 @@
     <cellStyle name="Link" xfId="232" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="234" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="244" builtinId="8" hidden="1"/>
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -716,7 +732,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>average runtime</c:v>
+                  <c:v>average runtime [seconds]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -785,7 +801,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>average reaction time</c:v>
+                  <c:v>average reaction time [seconds]</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -854,11 +870,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2118545160"/>
-        <c:axId val="2118547544"/>
+        <c:axId val="2107275240"/>
+        <c:axId val="2112640568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2118545160"/>
+        <c:axId val="2107275240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -867,7 +883,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118547544"/>
+        <c:crossAx val="2112640568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -875,7 +891,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118547544"/>
+        <c:axId val="2112640568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,20 +902,288 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118545160"/>
+        <c:crossAx val="2107275240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.728364723257686"/>
+          <c:y val="0.0508988602452091"/>
+          <c:w val="0.244009683836183"/>
+          <c:h val="0.126512781792687"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1300"/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>measurements!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average runtime [seconds]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>measurements!$M$2:$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4th test: mounted tuned nfs filesystem</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3rd test: mounted nfs filesystem</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2nd test: mounted vboxfs filesystem</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1st test: local guest vboxfx filesystem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>benchmark: local OS X host filesystem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>measurements!$N$2:$N$6</c:f>
+              <c:numCache>
+                <c:formatCode>00,000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.7405</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.451</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1516</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>measurements!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>average reaction time [seconds]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>measurements!$M$2:$M$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4th test: mounted tuned nfs filesystem</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3rd test: mounted nfs filesystem</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2nd test: mounted vboxfs filesystem</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1st test: local guest vboxfx filesystem</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>benchmark: local OS X host filesystem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>measurements!$O$2:$O$6</c:f>
+              <c:numCache>
+                <c:formatCode>00,000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.509021019935608</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.705021023750305</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.531521010398865</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.655215978622436</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.610557889938354</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2118408520"/>
+        <c:axId val="2116114392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2118408520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2116114392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2116114392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.0000" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2118408520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.728364723257686"/>
+          <c:y val="0.0508988602452091"/>
+          <c:w val="0.244009683836183"/>
+          <c:h val="0.147987376583825"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1300"/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -918,10 +1202,10 @@
       <xdr:rowOff>70224</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>205975</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>68303</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>29882</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -942,26 +1226,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>162615</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23595</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>120938</xdr:rowOff>
+      <xdr:rowOff>25932</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>162615</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>15498</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23595</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>74705</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Gerade Verbindung 4"/>
+        <xdr:cNvPr id="8" name="Gerade Verbindung 7"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="15133674" y="2302350"/>
-          <a:ext cx="0" cy="6931854"/>
+          <a:off x="15741713" y="2207344"/>
+          <a:ext cx="0" cy="1901479"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -994,25 +1278,57 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2481419</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>100637</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2481419</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>38227</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>810025</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Diagramm 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>805086</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>157405</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>805086</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>14941</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Gerade Verbindung 7"/>
+        <xdr:cNvPr id="5" name="Gerade Verbindung 4"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="14912478" y="2670519"/>
-          <a:ext cx="0" cy="6362296"/>
+          <a:off x="15701439" y="9645052"/>
+          <a:ext cx="0" cy="3652595"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1040,6 +1356,84 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>119529</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>74705</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>418352</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Textfeld 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12550588" y="3914587"/>
+          <a:ext cx="2764117" cy="403412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5th</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> test: mounted smb filesystem</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1367,9 +1761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1381,13 +1777,11 @@
     <col min="6" max="6" width="32.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.83203125" style="4" customWidth="1"/>
     <col min="8" max="8" width="7.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="33.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="3"/>
+    <col min="9" max="21" width="10.83203125" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19">
+    <row r="1" spans="1:15" ht="19">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1401,30 +1795,42 @@
         <v>6</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="9" t="str">
+        <f>I1</f>
+        <v>Test</v>
+      </c>
+      <c r="N1" s="10" t="str">
+        <f t="shared" ref="N1" si="0">J1</f>
+        <v>average runtime [seconds]</v>
+      </c>
+      <c r="O1" s="9" t="str">
+        <f t="shared" ref="O1" si="1">K1</f>
+        <v>average reaction time [seconds]</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="1" t="str">
@@ -1439,8 +1845,20 @@
         <f>D62</f>
         <v>9.7050210237503052</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="1" t="str">
+        <f>I3</f>
+        <v>4th test: mounted tuned nfs filesystem</v>
+      </c>
+      <c r="N2" s="4">
+        <f>J3</f>
+        <v>0.74050000000000005</v>
+      </c>
+      <c r="O2" s="4">
+        <f>K3</f>
+        <v>1.509021019935608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="4">
         <v>1443874982.0924301</v>
       </c>
@@ -1451,7 +1869,7 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D12" si="0">B3-A3</f>
+        <f t="shared" ref="D3:D12" si="2">B3-A3</f>
         <v>0.63856983184814453</v>
       </c>
       <c r="E3" s="5">
@@ -1472,11 +1890,23 @@
         <v>0.74050000000000005</v>
       </c>
       <c r="K3" s="4">
-        <f t="shared" ref="K3" si="1">D78</f>
+        <f t="shared" ref="K3" si="3">D78</f>
         <v>1.509021019935608</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="1" t="str">
+        <f>I2</f>
+        <v>3rd test: mounted nfs filesystem</v>
+      </c>
+      <c r="N3" s="4">
+        <f>J2</f>
+        <v>0.45099999999999996</v>
+      </c>
+      <c r="O3" s="4">
+        <f>K2</f>
+        <v>9.7050210237503052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="4">
         <v>1443874983.7042401</v>
       </c>
@@ -1487,15 +1917,15 @@
         <v>0.317</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.63275980949401855</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E12" si="2">1-D4/$D$14</f>
+        <f t="shared" ref="E4:E12" si="4">1-D4/$D$14</f>
         <v>-3.6363332489087519E-2</v>
       </c>
       <c r="F4" s="5">
-        <f t="shared" ref="F4:F12" si="3">1-C4/$C$14</f>
+        <f t="shared" ref="F4:F12" si="5">1-C4/$C$14</f>
         <v>-4.1178333861260352E-3</v>
       </c>
       <c r="I4" s="1" t="str">
@@ -1510,8 +1940,20 @@
         <f>D46</f>
         <v>1.5315210103988648</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="1" t="str">
+        <f>I4</f>
+        <v>2nd test: mounted vboxfs filesystem</v>
+      </c>
+      <c r="N4" s="4">
+        <f>J4</f>
+        <v>1.1515999999999997</v>
+      </c>
+      <c r="O4" s="4">
+        <f>K4</f>
+        <v>1.5315210103988648</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="4">
         <v>1443874985.1106901</v>
       </c>
@@ -1522,15 +1964,15 @@
         <v>0.313</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.63630986213684082</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-4.2177773185580136E-2</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8.5524231865694578E-3</v>
       </c>
       <c r="I5" s="1" t="str">
@@ -1545,8 +1987,20 @@
         <f>D94</f>
         <v>0.65191202163696294</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="1" t="str">
+        <f>I6</f>
+        <v>1st test: local guest vboxfx filesystem</v>
+      </c>
+      <c r="N5" s="4">
+        <f>J6</f>
+        <v>0.35009999999999997</v>
+      </c>
+      <c r="O5" s="4">
+        <f>K6</f>
+        <v>0.65521597862243652</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="4">
         <v>1443874986.4568901</v>
       </c>
@@ -1557,15 +2011,15 @@
         <v>0.314</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.59610986709594727</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3663641205039498E-2</v>
       </c>
       <c r="F6" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.3848590433955845E-3</v>
       </c>
       <c r="I6" s="1" t="str">
@@ -1580,8 +2034,20 @@
         <f>D30</f>
         <v>0.65521597862243652</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="M6" s="1" t="str">
+        <f>I7</f>
+        <v>benchmark: local OS X host filesystem</v>
+      </c>
+      <c r="N6" s="4">
+        <f>J7</f>
+        <v>0.31569999999999998</v>
+      </c>
+      <c r="O6" s="4">
+        <f>K7</f>
+        <v>0.61055788993835447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="4">
         <v>1443874987.7908299</v>
       </c>
@@ -1592,15 +2058,15 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.57916998863220215</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5.1408558997282694E-2</v>
       </c>
       <c r="F7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.0452961672474004E-2</v>
       </c>
       <c r="I7" s="1" t="str">
@@ -1616,7 +2082,7 @@
         <v>0.61055788993835447</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:15">
       <c r="A8" s="4">
         <v>1443874989.07149</v>
       </c>
@@ -1627,19 +2093,19 @@
         <v>0.312</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.6005098819732666</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.645709298114606E-2</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1719987329743331E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:15">
       <c r="A9" s="4">
         <v>1443874990.3910601</v>
       </c>
@@ -1650,19 +2116,19 @@
         <v>0.31900000000000001</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.5969398021697998</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.2304335089224137E-2</v>
       </c>
       <c r="F9" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-1.0452961672474004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:15">
       <c r="A10" s="4">
         <v>1443874991.7049</v>
       </c>
@@ -1673,19 +2139,19 @@
         <v>0.316</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.58509993553161621</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.1696217224068022E-2</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-9.5026924295216197E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:15">
       <c r="A11" s="4">
         <v>1443874993.1503</v>
       </c>
@@ -1696,19 +2162,19 @@
         <v>0.314</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.64470005035400391</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>-5.5919612174853084E-2</v>
       </c>
       <c r="F11" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5.3848590433955845E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:15">
       <c r="A12" s="4">
         <v>1443874994.60659</v>
       </c>
@@ -1719,19 +2185,19 @@
         <v>0.311</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.59540987014770508</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.481012863854537E-2</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.4887551472917315E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1">
+    <row r="13" spans="1:15" hidden="1">
       <c r="E13" s="4">
         <v>-1</v>
       </c>
@@ -1739,7 +2205,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18">
+    <row r="14" spans="1:15" ht="18">
       <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
@@ -1752,7 +2218,7 @@
         <v>0.61055788993835447</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="18">
+    <row r="15" spans="1:15" ht="18">
       <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1782,23 +2248,23 @@
         <v>perl -e 'use Time...' [s]</v>
       </c>
       <c r="B18" s="4" t="str">
-        <f t="shared" ref="B18:F18" si="4">B2</f>
+        <f t="shared" ref="B18:F18" si="6">B2</f>
         <v>grunt logmillisecs [s]</v>
       </c>
       <c r="C18" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>grunt runtime ("completed in ...") [s]</v>
       </c>
       <c r="D18" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>reaction time [s]</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>reaction time: difference from average [s]</v>
       </c>
       <c r="F18" s="4" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>runtime: difference from average [s]</v>
       </c>
     </row>
@@ -1813,15 +2279,15 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ref="D19:D28" si="5">B19-A19</f>
+        <f t="shared" ref="D19:D28" si="7">B19-A19</f>
         <v>0.6544499397277832</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" ref="E19:E28" si="6">1-D19/$D$30</f>
+        <f t="shared" ref="E19:E28" si="8">1-D19/$D$30</f>
         <v>1.1691395198631938E-3</v>
       </c>
       <c r="F19" s="5">
-        <f t="shared" ref="F19:F28" si="7">1-C19/$C$30</f>
+        <f t="shared" ref="F19:F28" si="9">1-C19/$C$30</f>
         <v>4.8843187660668197E-2</v>
       </c>
       <c r="H19" s="3"/>
@@ -1837,15 +2303,15 @@
         <v>0.36399999999999999</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.6662600040435791</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-1.6855549592001973E-2</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.9702942016566656E-2</v>
       </c>
     </row>
@@ -1860,15 +2326,15 @@
         <v>0.36499999999999999</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.65321993827819824</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0463853284452558E-3</v>
       </c>
       <c r="F21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.2559268780348436E-2</v>
       </c>
     </row>
@@ -1883,15 +2349,15 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.6827700138092041</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-4.2053362686146345E-2</v>
       </c>
       <c r="F22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.8843187660668197E-2</v>
       </c>
     </row>
@@ -1906,15 +2372,15 @@
         <v>0.33300000000000002</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.6591799259185791</v>
       </c>
       <c r="E23" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-6.0498330710381243E-3</v>
       </c>
       <c r="F23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4.8843187660668197E-2</v>
       </c>
     </row>
@@ -1929,15 +2395,15 @@
         <v>0.33200000000000002</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.60446000099182129</v>
       </c>
       <c r="E24" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.746449916762943E-2</v>
       </c>
       <c r="F24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>5.1699514424449977E-2</v>
       </c>
     </row>
@@ -1952,15 +2418,15 @@
         <v>0.35599999999999998</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.69671988487243652</v>
       </c>
       <c r="E25" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-6.3343855467719479E-2</v>
       </c>
       <c r="F25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.6852327906312636E-2</v>
       </c>
     </row>
@@ -1975,15 +2441,15 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.63133001327514648</v>
       </c>
       <c r="E26" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.6455102022251107E-2</v>
       </c>
       <c r="F26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.5415595544130216E-2</v>
       </c>
     </row>
@@ -1998,15 +2464,15 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.59721994400024414</v>
       </c>
       <c r="E27" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>8.8514377723398208E-2</v>
       </c>
       <c r="F27" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>6.3124821479577098E-2</v>
       </c>
     </row>
@@ -2021,15 +2487,15 @@
         <v>0.39100000000000001</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.70655012130737305</v>
       </c>
       <c r="E28" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-7.8346902944681496E-2</v>
       </c>
       <c r="F28" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.11682376463867472</v>
       </c>
     </row>
@@ -2079,27 +2545,27 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:F34" si="8">A18</f>
+        <f t="shared" ref="A34:F34" si="10">A18</f>
         <v>perl -e 'use Time...' [s]</v>
       </c>
       <c r="B34" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>grunt logmillisecs [s]</v>
       </c>
       <c r="C34" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>grunt runtime ("completed in ...") [s]</v>
       </c>
       <c r="D34" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>reaction time [s]</v>
       </c>
       <c r="E34" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>reaction time: difference from average [s]</v>
       </c>
       <c r="F34" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>runtime: difference from average [s]</v>
       </c>
     </row>
@@ -2114,11 +2580,11 @@
         <v>1.113</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" ref="D35:D44" si="9">B35-A35</f>
+        <f t="shared" ref="D35:D44" si="11">B35-A35</f>
         <v>1.4450998306274414</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" ref="E35:E44" si="10">1-D35/$D$46</f>
+        <f t="shared" ref="E35:E44" si="12">1-D35/$D$46</f>
         <v>5.6428334436571692E-2</v>
       </c>
       <c r="F35" s="5">
@@ -2137,15 +2603,15 @@
         <v>1.1519999999999999</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5381298065185547</v>
       </c>
       <c r="E36" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-4.3151847573861257E-3</v>
       </c>
       <c r="F36" s="5">
-        <f t="shared" ref="F36:F44" si="11">1-C36/$C$46</f>
+        <f t="shared" ref="F36:F44" si="13">1-C36/$C$46</f>
         <v>-3.4734282737081124E-4</v>
       </c>
     </row>
@@ -2160,15 +2626,15 @@
         <v>1.22</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.6251199245452881</v>
       </c>
       <c r="E37" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-6.1115004959707786E-2</v>
       </c>
       <c r="F37" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-5.9395623480375415E-2</v>
       </c>
     </row>
@@ -2183,15 +2649,15 @@
         <v>1.1279999999999999</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4973001480102539</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.2344363646502274E-2</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2.0493226814866095E-2</v>
       </c>
     </row>
@@ -2206,15 +2672,15 @@
         <v>1.145</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5078301429748535</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.5468849113497551E-2</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>5.7311566516149437E-3</v>
       </c>
     </row>
@@ -2229,15 +2695,15 @@
         <v>1.1479999999999999</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5033199787139893</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.8413741302530928E-2</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>3.1260854463354137E-3</v>
       </c>
     </row>
@@ -2252,15 +2718,15 @@
         <v>1.133</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5579800605773926</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1.7276322034678993E-2</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1.6151441472733397E-2</v>
       </c>
     </row>
@@ -2275,15 +2741,15 @@
         <v>1.103</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4979000091552734</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.195268691406016E-2</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>4.2202153525529473E-2</v>
       </c>
     </row>
@@ -2298,15 +2764,15 @@
         <v>1.1579999999999999</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.5013000965118408</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1.9732614624172418E-2</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-5.5574852379300932E-3</v>
       </c>
     </row>
@@ -2321,15 +2787,15 @@
         <v>1.216</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.6412301063537598</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-7.1634078285561786E-2</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-5.5922195206669301E-2</v>
       </c>
     </row>
@@ -2379,27 +2845,27 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="4" t="str">
-        <f t="shared" ref="A50:F50" si="12">A34</f>
+        <f t="shared" ref="A50:F50" si="14">A34</f>
         <v>perl -e 'use Time...' [s]</v>
       </c>
       <c r="B50" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>grunt logmillisecs [s]</v>
       </c>
       <c r="C50" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>grunt runtime ("completed in ...") [s]</v>
       </c>
       <c r="D50" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>reaction time [s]</v>
       </c>
       <c r="E50" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>reaction time: difference from average [s]</v>
       </c>
       <c r="F50" s="4" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>runtime: difference from average [s]</v>
       </c>
     </row>
@@ -2415,7 +2881,7 @@
         <v>0.496</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" ref="D51:D60" si="13">B51-A51</f>
+        <f t="shared" ref="D51:D60" si="15">B51-A51</f>
         <v>55.180099964141846</v>
       </c>
       <c r="E51" s="5">
@@ -2429,7 +2895,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="4">
-        <f t="shared" ref="A52:A60" si="14">A36</f>
+        <f t="shared" ref="A52:A60" si="16">A36</f>
         <v>1443873967.6768701</v>
       </c>
       <c r="B52" s="4">
@@ -2439,21 +2905,21 @@
         <v>0.48899999999999999</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>17.758129835128784</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" ref="E52:E60" si="15">1-D52/$D$62</f>
+        <f t="shared" ref="E52:E60" si="17">1-D52/$D$62</f>
         <v>-0.82978787904433826</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" ref="F52:F60" si="16">1-C52/$C$62</f>
+        <f t="shared" ref="F52:F60" si="18">1-C52/$C$62</f>
         <v>-8.4257206208425695E-2</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1443873986.42188</v>
       </c>
       <c r="B53" s="4">
@@ -2463,21 +2929,21 @@
         <v>0.46899999999999997</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.0171198844909668</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.79215708244684535</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-3.9911308203991247E-2</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1443873990.2217</v>
       </c>
       <c r="B54" s="4">
@@ -2487,21 +2953,21 @@
         <v>0.53100000000000003</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.29830002784729</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.86622388301168374</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-0.17738359201773846</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1443873995.8271699</v>
       </c>
       <c r="B55" s="4">
@@ -2511,21 +2977,21 @@
         <v>0.38400000000000001</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>4.6408300399780273</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.52181143877783431</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.14855875831485577</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1443874003.93168</v>
       </c>
       <c r="B56" s="4">
@@ -2535,21 +3001,21 @@
         <v>0.39600000000000002</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.6333200931549072</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.41954581248521328</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.12195121951219501</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1443874013.0670199</v>
       </c>
       <c r="B57" s="4">
@@ -2559,21 +3025,21 @@
         <v>0.39600000000000002</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.5549800395965576</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.42761792828657363</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.12195121951219501</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1443874019.3320999</v>
       </c>
       <c r="B58" s="4">
@@ -2583,21 +3049,21 @@
         <v>0.37</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>2.3179001808166504</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.76116484702668419</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0.17960088691796006</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1443874023.4126999</v>
       </c>
       <c r="B59" s="4">
@@ -2607,21 +3073,21 @@
         <v>0.49099999999999999</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.3833000659942627</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.85746552608087856</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-8.8691796008869339E-2</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1443874026.56177</v>
       </c>
       <c r="B60" s="4">
@@ -2631,15 +3097,15 @@
         <v>0.48799999999999999</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1.2662301063537598</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>0.86952834998965811</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-8.2039911308203983E-2</v>
       </c>
     </row>
@@ -2689,27 +3155,27 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="4" t="str">
-        <f t="shared" ref="A66:F66" si="17">A50</f>
+        <f t="shared" ref="A66:F66" si="19">A50</f>
         <v>perl -e 'use Time...' [s]</v>
       </c>
       <c r="B66" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>grunt logmillisecs [s]</v>
       </c>
       <c r="C66" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>grunt runtime ("completed in ...") [s]</v>
       </c>
       <c r="D66" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>reaction time [s]</v>
       </c>
       <c r="E66" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>reaction time: difference from average [s]</v>
       </c>
       <c r="F66" s="4" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>runtime: difference from average [s]</v>
       </c>
     </row>
@@ -2725,7 +3191,7 @@
         <v>0.77300000000000002</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" ref="D67:D76" si="18">B67-A67</f>
+        <f t="shared" ref="D67:D76" si="20">B67-A67</f>
         <v>1.1030998229980469</v>
       </c>
       <c r="E67" s="5">
@@ -2739,7 +3205,7 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="4">
-        <f t="shared" ref="A68:A76" si="19">A36</f>
+        <f t="shared" ref="A68:A76" si="21">A36</f>
         <v>1443873967.6768701</v>
       </c>
       <c r="B68" s="4">
@@ -2749,21 +3215,21 @@
         <v>0.80800000000000005</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.3181297779083252</v>
       </c>
       <c r="E68" s="5">
-        <f t="shared" ref="E68:E76" si="20">1-D68/$D$78</f>
+        <f t="shared" ref="E68:E76" si="22">1-D68/$D$78</f>
         <v>0.12650005500614458</v>
       </c>
       <c r="F68" s="5">
-        <f t="shared" ref="F68:F76" si="21">1-C68/$C$78</f>
+        <f t="shared" ref="F68:F76" si="23">1-C68/$C$78</f>
         <v>-9.1154625253207389E-2</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1443873986.42188</v>
       </c>
       <c r="B69" s="4">
@@ -2773,21 +3239,21 @@
         <v>0.69</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.6591200828552246</v>
       </c>
       <c r="E69" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-9.9467841028497705E-2</v>
       </c>
       <c r="F69" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>6.8197164078325545E-2</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1443873990.2217</v>
       </c>
       <c r="B70" s="4">
@@ -2797,21 +3263,21 @@
         <v>0.9</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>2.0973000526428223</v>
       </c>
       <c r="E70" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-0.38984150978381793</v>
       </c>
       <c r="F70" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.21539500337609718</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1443873995.8271699</v>
       </c>
       <c r="B71" s="4">
@@ -2821,21 +3287,21 @@
         <v>0.64700000000000002</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.2788300514221191</v>
       </c>
       <c r="E71" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.15254324855150891</v>
       </c>
       <c r="F71" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.12626603646185008</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1443874003.93168</v>
       </c>
       <c r="B72" s="4">
@@ -2845,21 +3311,21 @@
         <v>0.73899999999999999</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.3153200149536133</v>
       </c>
       <c r="E72" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.12836203235277677</v>
       </c>
       <c r="F72" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>2.02565833896029E-3</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1443874013.0670199</v>
       </c>
       <c r="B73" s="4">
@@ -2869,21 +3335,21 @@
         <v>0.91100000000000003</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.465980052947998</v>
       </c>
       <c r="E73" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2.8522443636634365E-2</v>
       </c>
       <c r="F73" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-0.23024983119513842</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1443874019.3320999</v>
       </c>
       <c r="B74" s="4">
@@ -2893,21 +3359,21 @@
         <v>0.59199999999999997</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0.96990013122558594</v>
       </c>
       <c r="E74" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0.35726532737961936</v>
       </c>
       <c r="F74" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.20054017555705617</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1443874023.4126999</v>
       </c>
       <c r="B75" s="4">
@@ -2917,21 +3383,21 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.9023001194000244</v>
       </c>
       <c r="E75" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-0.26061870197222192</v>
       </c>
       <c r="F75" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>0.23024983119513853</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>1443874026.56177</v>
       </c>
       <c r="B76" s="4">
@@ -2941,15 +3407,15 @@
         <v>0.77500000000000002</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1.9802300930023193</v>
       </c>
       <c r="E76" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>-0.31226143760861502</v>
       </c>
       <c r="F76" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>-4.6590141796083673E-2</v>
       </c>
     </row>
@@ -3028,7 +3494,7 @@
         <v>0.32600000000000001</v>
       </c>
       <c r="D83" s="4">
-        <f t="shared" ref="D83:D92" si="22">B83-A83</f>
+        <f t="shared" ref="D83:D92" si="24">B83-A83</f>
         <v>0.60861015319824219</v>
       </c>
       <c r="E83" s="5">
@@ -3051,15 +3517,15 @@
         <v>0.36099999999999999</v>
       </c>
       <c r="D84" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.67958998680114746</v>
       </c>
       <c r="E84" s="5">
-        <f t="shared" ref="E84:E92" si="23">1-D84/$D$94</f>
+        <f t="shared" ref="E84:E92" si="25">1-D84/$D$94</f>
         <v>-4.2456595745365533E-2</v>
       </c>
       <c r="F84" s="5">
-        <f t="shared" ref="F84:F92" si="24">1-C84/$C$94</f>
+        <f t="shared" ref="F84:F92" si="26">1-C84/$C$94</f>
         <v>-6.051703877790815E-2</v>
       </c>
     </row>
@@ -3074,15 +3540,15 @@
         <v>0.32700000000000001</v>
       </c>
       <c r="D85" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.63172006607055664</v>
       </c>
       <c r="E85" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.0973436439634794E-2</v>
       </c>
       <c r="F85" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.9365452408930746E-2</v>
       </c>
     </row>
@@ -3097,15 +3563,15 @@
         <v>0.36</v>
       </c>
       <c r="D86" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.71362996101379395</v>
       </c>
       <c r="E86" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-9.4672190922106658E-2</v>
       </c>
       <c r="F86" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-5.7579318448883532E-2</v>
       </c>
     </row>
@@ -3120,15 +3586,15 @@
         <v>0.35299999999999998</v>
       </c>
       <c r="D87" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.69574999809265137</v>
       </c>
       <c r="E87" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-6.724523402039817E-2</v>
       </c>
       <c r="F87" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-3.7015276145710763E-2</v>
       </c>
     </row>
@@ -3143,15 +3609,15 @@
         <v>0.32800000000000001</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.63034987449645996</v>
       </c>
       <c r="E88" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>3.3075240868177369E-2</v>
       </c>
       <c r="F88" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3.6427732079906017E-2</v>
       </c>
     </row>
@@ -3166,15 +3632,15 @@
         <v>0.36199999999999999</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.65138006210327148</v>
       </c>
       <c r="E89" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>8.1599896310502462E-4</v>
       </c>
       <c r="F89" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-6.3454759106932768E-2</v>
       </c>
     </row>
@@ -3189,15 +3655,15 @@
         <v>0.315</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.59248995780944824</v>
       </c>
       <c r="E90" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>9.1150434192492469E-2</v>
       </c>
       <c r="F90" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>7.4618096357226937E-2</v>
       </c>
     </row>
@@ -3212,15 +3678,15 @@
         <v>0.35</v>
       </c>
       <c r="D91" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.65121006965637207</v>
       </c>
       <c r="E91" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1.076758760834351E-3</v>
       </c>
       <c r="F91" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-2.8202115158636687E-2</v>
       </c>
     </row>
@@ -3235,15 +3701,15 @@
         <v>0.32200000000000001</v>
       </c>
       <c r="D92" s="4">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0.66439008712768555</v>
       </c>
       <c r="E92" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>-1.9140720030580205E-2</v>
       </c>
       <c r="F92" s="5">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5.4054054054054168E-2</v>
       </c>
     </row>
